--- a/public/format/Format Import Efaktur PK.xlsx
+++ b/public/format/Format Import Efaktur PK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\Sequislife\ecosystem\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C3947C-F640-438C-8A47-4A7E305D5B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41A21F5-5029-48F7-B581-CA90FD66629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E1D009C-8BAC-4F3E-BE9F-A309466D7683}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -158,18 +158,49 @@
   </si>
   <si>
     <t>Jenis Faktur</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>841 X Rp.1034</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.09</t>
+  </si>
+  <si>
+    <t>Rp.1034</t>
+  </si>
+  <si>
+    <t>1673015605720002</t>
+  </si>
+  <si>
+    <t>ISA</t>
+  </si>
+  <si>
+    <t>JL.PURI SANI BLOCK B1 NO.09</t>
+  </si>
+  <si>
+    <t>Total DPP</t>
+  </si>
+  <si>
+    <t>Total PPN</t>
+  </si>
+  <si>
+    <t>Total PPNBM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="0000000000000"/>
     <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -229,11 +260,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -262,24 +292,12 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -290,13 +308,100 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Mata Uang" xfId="2" builtinId="4"/>
-    <cellStyle name="Mata Uang [0]" xfId="1" builtinId="7"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -449,30 +554,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -693,46 +774,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}" name="Tabel2" displayName="Tabel2" ref="A1:X2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:X2" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{BBCE2AAA-BE43-4C04-9E7B-25A23D1B6822}" name="Tanggal" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{A3A9CAFE-291B-401F-B042-5EAD345045E1}" name="No Faktur" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{1B9E5F18-49C7-41E3-83A3-46E27303F44E}" name="Kode Barang" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{69727CCC-FB03-46BB-9D0F-848D35F2B9C0}" name="Nama Barang" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{1A89B729-8C4D-4897-951C-551E6196218F}" name="Harga Satuan" dataDxfId="16" dataCellStyle="Mata Uang"/>
-    <tableColumn id="6" xr3:uid="{00F8AC33-C612-4919-AF5A-E28C19B7C982}" name="Jumlah Barang" dataDxfId="15" dataCellStyle="Mata Uang [0]"/>
-    <tableColumn id="7" xr3:uid="{63AF65F0-9754-4592-B4EE-BB6389EB9B79}" name="Harga Total" dataDxfId="14" dataCellStyle="Mata Uang [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}" name="Tabel2" displayName="Tabel2" ref="A1:AA3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A1:AA3" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}"/>
+  <tableColumns count="27">
+    <tableColumn id="1" xr3:uid="{BBCE2AAA-BE43-4C04-9E7B-25A23D1B6822}" name="Tanggal" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{A3A9CAFE-291B-401F-B042-5EAD345045E1}" name="No Faktur" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{1B9E5F18-49C7-41E3-83A3-46E27303F44E}" name="Kode Barang" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{69727CCC-FB03-46BB-9D0F-848D35F2B9C0}" name="Nama Barang" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{1A89B729-8C4D-4897-951C-551E6196218F}" name="Harga Satuan" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00F8AC33-C612-4919-AF5A-E28C19B7C982}" name="Jumlah Barang" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{63AF65F0-9754-4592-B4EE-BB6389EB9B79}" name="Harga Total" dataDxfId="17">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F04BD36D-73F6-4878-99A2-E0B1B8A1FF0D}" name="Diskon" dataDxfId="13" dataCellStyle="Mata Uang"/>
-    <tableColumn id="9" xr3:uid="{C939111D-FDDD-4AE6-9CF4-E32E0C132E97}" name="DPP" dataDxfId="12" dataCellStyle="Mata Uang [0]">
+    <tableColumn id="8" xr3:uid="{F04BD36D-73F6-4878-99A2-E0B1B8A1FF0D}" name="Diskon" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{C939111D-FDDD-4AE6-9CF4-E32E0C132E97}" name="DPP" dataDxfId="15">
       <calculatedColumnFormula>G2-H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FDEA914D-B1BF-4EDC-AEDD-14F6CDBB895B}" name="PPN" dataDxfId="11" dataCellStyle="Mata Uang [0]">
+    <tableColumn id="10" xr3:uid="{FDEA914D-B1BF-4EDC-AEDD-14F6CDBB895B}" name="PPN" dataDxfId="14">
       <calculatedColumnFormula>I2*(11/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D769E2CF-D62C-446C-9A53-E329E20C6807}" name="Tarif PPNBM" dataDxfId="10" dataCellStyle="Mata Uang"/>
-    <tableColumn id="12" xr3:uid="{4DE0E037-96B7-48BE-8850-5258C9847B91}" name="PPNBM" dataDxfId="9" dataCellStyle="Mata Uang [0]"/>
-    <tableColumn id="13" xr3:uid="{B615268A-844B-42E2-A5A2-72195A2664E4}" name="NPWP/NIK" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{F1E33254-D780-4D07-80BB-5674F9B70303}" name="Nama NPWP/NIK" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{22CC396C-2CBE-479D-88F5-6EA5DC9D5133}" name="Alamat" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{D769E2CF-D62C-446C-9A53-E329E20C6807}" name="Tarif PPNBM" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{4DE0E037-96B7-48BE-8850-5258C9847B91}" name="PPNBM" dataDxfId="4"/>
+    <tableColumn id="27" xr3:uid="{D90DE2BF-D8D6-45C1-BC6A-8D5100548E5B}" name="Total DPP" dataDxfId="1" dataCellStyle="Currency [0]">
+      <calculatedColumnFormula>SUM(Tabel2[DPP])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="26" xr3:uid="{7C665D7A-3AA8-4D50-9C74-75C3B649AFFE}" name="Total PPN" dataDxfId="0" dataCellStyle="Currency [0]">
+      <calculatedColumnFormula>SUM(Tabel2[PPN])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="25" xr3:uid="{D17EDC71-1CD5-427B-AEE7-46430C485439}" name="Total PPNBM" dataDxfId="2" dataCellStyle="Currency [0]"/>
+    <tableColumn id="13" xr3:uid="{B615268A-844B-42E2-A5A2-72195A2664E4}" name="NPWP/NIK" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{F1E33254-D780-4D07-80BB-5674F9B70303}" name="Nama NPWP/NIK" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{22CC396C-2CBE-479D-88F5-6EA5DC9D5133}" name="Alamat" dataDxfId="11"/>
     <tableColumn id="16" xr3:uid="{3D0EFD70-50F5-4716-9B7D-3E98D5AE2624}" name="Jenis Faktur"/>
     <tableColumn id="17" xr3:uid="{EEFF7594-94BB-4A0D-8B96-CF56730F1D99}" name="Jenis Transaksi"/>
-    <tableColumn id="18" xr3:uid="{C5A4ADF7-A071-4A78-B977-141879F78DB9}" name="ID Keterangan Tambahan" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{47330B13-5D92-4F55-859E-BF363B6E02E4}" name="FG Uang Muka" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{817CF753-F434-42FF-AB6F-B8255AE55FF2}" name="Uang Muka DPP" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{14096E70-864F-498E-BF7D-F6876B6CBC26}" name="Uang Muka PPN" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{DA5EE2D8-370D-4D64-A71E-0C60CC9FE1F2}" name="Uang Muka PPNBM" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{C5A4ADF7-A071-4A78-B977-141879F78DB9}" name="ID Keterangan Tambahan" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{47330B13-5D92-4F55-859E-BF363B6E02E4}" name="FG Uang Muka" dataDxfId="9"/>
+    <tableColumn id="20" xr3:uid="{817CF753-F434-42FF-AB6F-B8255AE55FF2}" name="Uang Muka DPP" dataDxfId="8"/>
+    <tableColumn id="21" xr3:uid="{14096E70-864F-498E-BF7D-F6876B6CBC26}" name="Uang Muka PPN" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{DA5EE2D8-370D-4D64-A71E-0C60CC9FE1F2}" name="Uang Muka PPNBM" dataDxfId="6"/>
     <tableColumn id="23" xr3:uid="{F8D94E09-EF08-41BF-82CE-7F8D98F93F38}" name="Kode Dokumen Pendukung"/>
-    <tableColumn id="24" xr3:uid="{AE3F260F-3E3E-426B-BC7B-05F739770553}" name="Referensi" dataDxfId="0"/>
+    <tableColumn id="24" xr3:uid="{AE3F260F-3E3E-426B-BC7B-05F739770553}" name="Referensi" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1028,196 +1116,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6860E-518B-4B96-A056-3477492E079F}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="12" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="25" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="25" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="85" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.28515625" customWidth="1"/>
-    <col min="18" max="18" width="30.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="27.140625" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="20" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="15" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="20" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="20" customWidth="1"/>
+    <col min="12" max="14" width="13.28515625" style="20" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="18" max="18" width="85" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.28515625" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" customWidth="1"/>
+    <col min="25" max="25" width="21.140625" customWidth="1"/>
+    <col min="26" max="26" width="27.140625" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="R1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="U1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="W1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="X1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="Y1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Z1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="AA1" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    <row r="2" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>45168</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>42352397870</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>1033</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="18">
         <f>E2*F2</f>
         <v>1033</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="21">
         <v>0</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="18">
         <f>G2-H2</f>
         <v>1033</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="18">
         <f>I2*(11/100)</f>
         <v>113.63</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="21">
         <v>0</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="18">
         <v>0</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="22">
+        <f>SUM(Tabel2[DPP])</f>
+        <v>5033</v>
+      </c>
+      <c r="N2" s="22">
+        <f>SUM(Tabel2[PPN])</f>
+        <v>553.63</v>
+      </c>
+      <c r="O2" s="22">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="Q2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="R2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="9"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
       <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="3"/>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B3" s="12">
+        <v>42352397870</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18">
+        <f>E3*F3</f>
+        <v>4000</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
+        <f>G3-H3</f>
+        <v>4000</v>
+      </c>
+      <c r="J3" s="19">
+        <f>I3*(11/100)</f>
+        <v>440</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="22">
+        <f>SUM(Tabel2[DPP])</f>
+        <v>5033</v>
+      </c>
+      <c r="N3" s="22">
+        <f>SUM(Tabel2[PPN])</f>
+        <v>553.63</v>
+      </c>
+      <c r="O3" s="22">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="9"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="AA3" s="6"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B4" s="12">
+        <v>42352397871</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3000</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
+        <f>E4*F4</f>
+        <v>6000</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
+        <f>G4-H4</f>
+        <v>6000</v>
+      </c>
+      <c r="J4" s="19">
+        <f>I4*(11/100)</f>
+        <v>660</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="22">
+        <f>SUM(Tabel2[DPP])</f>
+        <v>5033</v>
+      </c>
+      <c r="N4" s="22">
+        <f>SUM(Tabel2[PPN])</f>
+        <v>553.63</v>
+      </c>
+      <c r="O4" s="22">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="9"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="AA4" s="6"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{18CF0B83-2F3D-4193-B623-2EF5FBF4797B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{18CF0B83-2F3D-4193-B623-2EF5FBF4797B}">
       <formula1>"Faktur Pajak,Faktur Pajak Pengganti"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1233,13 +1474,13 @@
           <x14:formula1>
             <xm:f>Setting!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2</xm:sqref>
+          <xm:sqref>T2:T4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9ACCCF07-051A-46C6-BE5A-E90E36DF1E55}">
           <x14:formula1>
-            <xm:f>IF(Q2 = "Penyerahan yang PPN-nya Tidak Dipungut",Setting!$A$2, IF(Q2 = "Penyerahan yang PPN-nya Dibebaskan",Setting!$B$2, $Y$2  ) )</xm:f>
+            <xm:f>IF(T2 = "Penyerahan yang PPN-nya Tidak Dipungut",Setting!$A$2, IF(T2 = "Penyerahan yang PPN-nya Dibebaskan",Setting!$B$2, $AB$2  ) )</xm:f>
           </x14:formula1>
-          <xm:sqref>R2</xm:sqref>
+          <xm:sqref>U2:U4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/public/format/Format Import Efaktur PK.xlsx
+++ b/public/format/Format Import Efaktur PK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\Sequislife\ecosystem\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41A21F5-5029-48F7-B581-CA90FD66629F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD377E-E1C3-40AC-8AD2-23966A251121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E1D009C-8BAC-4F3E-BE9F-A309466D7683}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -115,9 +115,6 @@
     <t>JL.PRUMNAS NIKEN BLOCK B1 NO.08</t>
   </si>
   <si>
-    <t>840 X Rp.1033</t>
-  </si>
-  <si>
     <t>Jenis Transaksi</t>
   </si>
   <si>
@@ -163,15 +160,9 @@
     <t>02</t>
   </si>
   <si>
-    <t>841 X Rp.1034</t>
-  </si>
-  <si>
     <t>JL.PRUMNAS NIKEN BLOCK B1 NO.09</t>
   </si>
   <si>
-    <t>Rp.1034</t>
-  </si>
-  <si>
     <t>1673015605720002</t>
   </si>
   <si>
@@ -181,13 +172,13 @@
     <t>JL.PURI SANI BLOCK B1 NO.09</t>
   </si>
   <si>
-    <t>Total DPP</t>
-  </si>
-  <si>
-    <t>Total PPN</t>
-  </si>
-  <si>
-    <t>Total PPNBM</t>
+    <t>Barang 1</t>
+  </si>
+  <si>
+    <t>Barang 2</t>
+  </si>
+  <si>
+    <t>Minuman 1</t>
   </si>
 </sst>
 </file>
@@ -200,7 +191,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="0000000000000"/>
     <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -260,7 +251,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -274,9 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -292,23 +280,23 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -317,7 +305,7 @@
     <cellStyle name="Currency [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="23">
     <dxf>
       <font>
         <b val="0"/>
@@ -335,47 +323,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -399,8 +347,130 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -554,148 +624,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -774,46 +702,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}" name="Tabel2" displayName="Tabel2" ref="A1:AA3" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
-  <autoFilter ref="A1:AA3" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}"/>
-  <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{BBCE2AAA-BE43-4C04-9E7B-25A23D1B6822}" name="Tanggal" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{A3A9CAFE-291B-401F-B042-5EAD345045E1}" name="No Faktur" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{1B9E5F18-49C7-41E3-83A3-46E27303F44E}" name="Kode Barang" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{69727CCC-FB03-46BB-9D0F-848D35F2B9C0}" name="Nama Barang" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{1A89B729-8C4D-4897-951C-551E6196218F}" name="Harga Satuan" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00F8AC33-C612-4919-AF5A-E28C19B7C982}" name="Jumlah Barang" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{63AF65F0-9754-4592-B4EE-BB6389EB9B79}" name="Harga Total" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}" name="Tabel2" displayName="Tabel2" ref="A1:X3" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:X3" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}"/>
+  <tableColumns count="24">
+    <tableColumn id="1" xr3:uid="{BBCE2AAA-BE43-4C04-9E7B-25A23D1B6822}" name="Tanggal" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{A3A9CAFE-291B-401F-B042-5EAD345045E1}" name="No Faktur" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{1B9E5F18-49C7-41E3-83A3-46E27303F44E}" name="Kode Barang" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{69727CCC-FB03-46BB-9D0F-848D35F2B9C0}" name="Nama Barang" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{1A89B729-8C4D-4897-951C-551E6196218F}" name="Harga Satuan" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00F8AC33-C612-4919-AF5A-E28C19B7C982}" name="Jumlah Barang" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{63AF65F0-9754-4592-B4EE-BB6389EB9B79}" name="Harga Total" dataDxfId="6">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F04BD36D-73F6-4878-99A2-E0B1B8A1FF0D}" name="Diskon" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{C939111D-FDDD-4AE6-9CF4-E32E0C132E97}" name="DPP" dataDxfId="15">
-      <calculatedColumnFormula>G2-H2</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{F04BD36D-73F6-4878-99A2-E0B1B8A1FF0D}" name="Diskon" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{C939111D-FDDD-4AE6-9CF4-E32E0C132E97}" name="DPP" dataDxfId="5">
+      <calculatedColumnFormula>ROUND(G2-H2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FDEA914D-B1BF-4EDC-AEDD-14F6CDBB895B}" name="PPN" dataDxfId="14">
-      <calculatedColumnFormula>I2*(11/100)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{FDEA914D-B1BF-4EDC-AEDD-14F6CDBB895B}" name="PPN" dataDxfId="3">
+      <calculatedColumnFormula>ROUND(I2*(11/100),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D769E2CF-D62C-446C-9A53-E329E20C6807}" name="Tarif PPNBM" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{4DE0E037-96B7-48BE-8850-5258C9847B91}" name="PPNBM" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{D90DE2BF-D8D6-45C1-BC6A-8D5100548E5B}" name="Total DPP" dataDxfId="1" dataCellStyle="Currency [0]">
-      <calculatedColumnFormula>SUM(Tabel2[DPP])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="26" xr3:uid="{7C665D7A-3AA8-4D50-9C74-75C3B649AFFE}" name="Total PPN" dataDxfId="0" dataCellStyle="Currency [0]">
-      <calculatedColumnFormula>SUM(Tabel2[PPN])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="25" xr3:uid="{D17EDC71-1CD5-427B-AEE7-46430C485439}" name="Total PPNBM" dataDxfId="2" dataCellStyle="Currency [0]"/>
-    <tableColumn id="13" xr3:uid="{B615268A-844B-42E2-A5A2-72195A2664E4}" name="NPWP/NIK" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{F1E33254-D780-4D07-80BB-5674F9B70303}" name="Nama NPWP/NIK" dataDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{22CC396C-2CBE-479D-88F5-6EA5DC9D5133}" name="Alamat" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{D769E2CF-D62C-446C-9A53-E329E20C6807}" name="Tarif PPNBM" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{4DE0E037-96B7-48BE-8850-5258C9847B91}" name="PPNBM" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{B615268A-844B-42E2-A5A2-72195A2664E4}" name="NPWP/NIK" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{F1E33254-D780-4D07-80BB-5674F9B70303}" name="Nama NPWP/NIK" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{22CC396C-2CBE-479D-88F5-6EA5DC9D5133}" name="Alamat" dataDxfId="16"/>
     <tableColumn id="16" xr3:uid="{3D0EFD70-50F5-4716-9B7D-3E98D5AE2624}" name="Jenis Faktur"/>
     <tableColumn id="17" xr3:uid="{EEFF7594-94BB-4A0D-8B96-CF56730F1D99}" name="Jenis Transaksi"/>
-    <tableColumn id="18" xr3:uid="{C5A4ADF7-A071-4A78-B977-141879F78DB9}" name="ID Keterangan Tambahan" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{47330B13-5D92-4F55-859E-BF363B6E02E4}" name="FG Uang Muka" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{817CF753-F434-42FF-AB6F-B8255AE55FF2}" name="Uang Muka DPP" dataDxfId="8"/>
-    <tableColumn id="21" xr3:uid="{14096E70-864F-498E-BF7D-F6876B6CBC26}" name="Uang Muka PPN" dataDxfId="7"/>
-    <tableColumn id="22" xr3:uid="{DA5EE2D8-370D-4D64-A71E-0C60CC9FE1F2}" name="Uang Muka PPNBM" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{C5A4ADF7-A071-4A78-B977-141879F78DB9}" name="ID Keterangan Tambahan" dataDxfId="15"/>
+    <tableColumn id="19" xr3:uid="{47330B13-5D92-4F55-859E-BF363B6E02E4}" name="FG Uang Muka" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{817CF753-F434-42FF-AB6F-B8255AE55FF2}" name="Uang Muka DPP" dataDxfId="13"/>
+    <tableColumn id="21" xr3:uid="{14096E70-864F-498E-BF7D-F6876B6CBC26}" name="Uang Muka PPN" dataDxfId="12"/>
+    <tableColumn id="22" xr3:uid="{DA5EE2D8-370D-4D64-A71E-0C60CC9FE1F2}" name="Uang Muka PPNBM" dataDxfId="11"/>
     <tableColumn id="23" xr3:uid="{F8D94E09-EF08-41BF-82CE-7F8D98F93F38}" name="Kode Dokumen Pendukung"/>
-    <tableColumn id="24" xr3:uid="{AE3F260F-3E3E-426B-BC7B-05F739770553}" name="Referensi" dataDxfId="5"/>
+    <tableColumn id="24" xr3:uid="{AE3F260F-3E3E-426B-BC7B-05F739770553}" name="Referensi" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1116,349 +1037,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6860E-518B-4B96-A056-3477492E079F}">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="15" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="20" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="20" customWidth="1"/>
-    <col min="12" max="14" width="13.28515625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" customWidth="1"/>
-    <col min="18" max="18" width="85" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.28515625" customWidth="1"/>
-    <col min="21" max="21" width="30.28515625" customWidth="1"/>
-    <col min="22" max="22" width="16" customWidth="1"/>
-    <col min="23" max="23" width="17.140625" customWidth="1"/>
-    <col min="24" max="24" width="17.28515625" customWidth="1"/>
-    <col min="25" max="25" width="21.140625" customWidth="1"/>
-    <col min="26" max="26" width="27.140625" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="85" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" customWidth="1"/>
+    <col min="18" max="18" width="30.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="17.140625" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" customWidth="1"/>
+    <col min="22" max="22" width="21.140625" customWidth="1"/>
+    <col min="23" max="23" width="27.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="11" t="s">
         <v>10</v>
       </c>
+      <c r="P1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="S1" s="10" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="W1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="X1" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45168</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>42352397870</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="14">
+        <v>45</v>
+      </c>
+      <c r="E2" s="20">
         <v>1033</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="19">
         <v>1</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <f>E2*F2</f>
         <v>1033</v>
       </c>
       <c r="H2" s="21">
         <v>0</v>
       </c>
-      <c r="I2" s="18">
-        <f>G2-H2</f>
+      <c r="I2" s="17">
+        <f>ROUND(G2-H2,0)</f>
         <v>1033</v>
       </c>
-      <c r="J2" s="18">
-        <f>I2*(11/100)</f>
-        <v>113.63</v>
+      <c r="J2" s="17">
+        <f t="shared" ref="J2:J3" si="0">ROUND(I2*(11/100),0)</f>
+        <v>114</v>
       </c>
       <c r="K2" s="21">
         <v>0</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>0</v>
       </c>
-      <c r="M2" s="22">
-        <f>SUM(Tabel2[DPP])</f>
-        <v>5033</v>
-      </c>
-      <c r="N2" s="22">
-        <f>SUM(Tabel2[PPN])</f>
-        <v>553.63</v>
-      </c>
-      <c r="O2" s="22">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="9"/>
+      <c r="P2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="8"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="AA2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45168</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>42352397870</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="14">
+        <v>46</v>
+      </c>
+      <c r="E3" s="20">
         <v>2000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="19">
         <v>2</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="17">
         <f>E3*F3</f>
         <v>4000</v>
       </c>
       <c r="H3" s="21">
         <v>0</v>
       </c>
-      <c r="I3" s="19">
-        <f>G3-H3</f>
+      <c r="I3" s="18">
+        <f t="shared" ref="I3" si="1">ROUND(G3-H3,0)</f>
         <v>4000</v>
       </c>
-      <c r="J3" s="19">
-        <f>I3*(11/100)</f>
+      <c r="J3" s="17">
+        <f t="shared" si="0"/>
         <v>440</v>
       </c>
       <c r="K3" s="21">
         <v>0</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="17">
         <v>0</v>
       </c>
-      <c r="M3" s="22">
-        <f>SUM(Tabel2[DPP])</f>
-        <v>5033</v>
-      </c>
-      <c r="N3" s="22">
-        <f>SUM(Tabel2[PPN])</f>
-        <v>553.63</v>
-      </c>
-      <c r="O3" s="22">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="9"/>
+      <c r="O3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="AA3" s="6"/>
+      <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45169</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>42352397871</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="14">
+        <v>47</v>
+      </c>
+      <c r="E4" s="20">
         <v>3000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="19">
         <v>2</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="17">
         <f>E4*F4</f>
         <v>6000</v>
       </c>
       <c r="H4" s="21">
         <v>0</v>
       </c>
-      <c r="I4" s="19">
-        <f>G4-H4</f>
+      <c r="I4" s="18">
+        <f>ROUND(G4-H4,0)</f>
         <v>6000</v>
       </c>
-      <c r="J4" s="19">
-        <f>I4*(11/100)</f>
+      <c r="J4" s="18">
+        <f>ROUND(I4*(11/100),0)</f>
         <v>660</v>
       </c>
       <c r="K4" s="21">
         <v>0</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="17">
         <v>0</v>
       </c>
-      <c r="M4" s="22">
-        <f>SUM(Tabel2[DPP])</f>
-        <v>5033</v>
-      </c>
-      <c r="N4" s="22">
-        <f>SUM(Tabel2[PPN])</f>
-        <v>553.63</v>
-      </c>
-      <c r="O4" s="22">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" t="s">
-        <v>37</v>
-      </c>
-      <c r="T4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="9"/>
+      <c r="M4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
       <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="AA4" s="6"/>
+      <c r="X4" s="6"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{18CF0B83-2F3D-4193-B623-2EF5FBF4797B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{18CF0B83-2F3D-4193-B623-2EF5FBF4797B}">
       <formula1>"Faktur Pajak,Faktur Pajak Pengganti"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1474,13 +1352,13 @@
           <x14:formula1>
             <xm:f>Setting!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T4</xm:sqref>
+          <xm:sqref>Q2:Q4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9ACCCF07-051A-46C6-BE5A-E90E36DF1E55}">
           <x14:formula1>
-            <xm:f>IF(T2 = "Penyerahan yang PPN-nya Tidak Dipungut",Setting!$A$2, IF(T2 = "Penyerahan yang PPN-nya Dibebaskan",Setting!$B$2, $AB$2  ) )</xm:f>
+            <xm:f>IF(Q2 = "Penyerahan yang PPN-nya Tidak Dipungut",Setting!$A$2, IF(Q2 = "Penyerahan yang PPN-nya Dibebaskan",Setting!$B$2, $Y$2  ) )</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U4</xm:sqref>
+          <xm:sqref>R2:R4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1504,56 +1382,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/public/format/Format Import Efaktur PK.xlsx
+++ b/public/format/Format Import Efaktur PK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\Sequislife\ecosystem\public\format\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FEMBI NUR ILHAM\Tamplate\ecosystem\public\format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD377E-E1C3-40AC-8AD2-23966A251121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC7265C-7501-4D87-9FA2-7845A52715C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E1D009C-8BAC-4F3E-BE9F-A309466D7683}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="68">
   <si>
     <t>Kode Barang</t>
   </si>
@@ -163,35 +163,96 @@
     <t>JL.PRUMNAS NIKEN BLOCK B1 NO.09</t>
   </si>
   <si>
-    <t>1673015605720002</t>
-  </si>
-  <si>
-    <t>ISA</t>
-  </si>
-  <si>
-    <t>JL.PURI SANI BLOCK B1 NO.09</t>
-  </si>
-  <si>
     <t>Barang 1</t>
   </si>
   <si>
     <t>Barang 2</t>
   </si>
   <si>
-    <t>Minuman 1</t>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Barang 3</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Barang 4</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Barang 5</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Barang 6</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Barang 7</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Barang 8</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Barang 9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Barang 10</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.10</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.11</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.12</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.13</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.14</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.15</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.16</t>
+  </si>
+  <si>
+    <t>JL.PRUMNAS NIKEN BLOCK B1 NO.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+  <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="166" formatCode="0000000000000"/>
     <numFmt numFmtId="167" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -248,10 +309,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,10 +342,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -295,8 +352,25 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -306,6 +380,163 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -327,10 +558,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -467,10 +694,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="_-[$Rp-421]* #,##0_-;\-[$Rp-421]* #,##0_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="170" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0000000000000"/>
     </dxf>
     <dxf>
       <font>
@@ -489,7 +722,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <font>
@@ -512,165 +745,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0000000000000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -702,39 +776,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}" name="Tabel2" displayName="Tabel2" ref="A1:X3" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A1:X3" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}" name="Tabel2" displayName="Tabel2" ref="A1:X11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:X11" xr:uid="{1F1413AA-B7B2-49CD-BABA-3C5826DCFE08}"/>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{BBCE2AAA-BE43-4C04-9E7B-25A23D1B6822}" name="Tanggal" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{A3A9CAFE-291B-401F-B042-5EAD345045E1}" name="No Faktur" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{1B9E5F18-49C7-41E3-83A3-46E27303F44E}" name="Kode Barang" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{69727CCC-FB03-46BB-9D0F-848D35F2B9C0}" name="Nama Barang" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{1A89B729-8C4D-4897-951C-551E6196218F}" name="Harga Satuan" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00F8AC33-C612-4919-AF5A-E28C19B7C982}" name="Jumlah Barang" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{63AF65F0-9754-4592-B4EE-BB6389EB9B79}" name="Harga Total" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{69727CCC-FB03-46BB-9D0F-848D35F2B9C0}" name="Nama Barang" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{1A89B729-8C4D-4897-951C-551E6196218F}" name="Harga Satuan" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{00F8AC33-C612-4919-AF5A-E28C19B7C982}" name="Jumlah Barang" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{F04BD36D-73F6-4878-99A2-E0B1B8A1FF0D}" name="Diskon" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{63AF65F0-9754-4592-B4EE-BB6389EB9B79}" name="Harga Total" dataDxfId="13" dataCellStyle="Currency [0]">
       <calculatedColumnFormula>E2*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F04BD36D-73F6-4878-99A2-E0B1B8A1FF0D}" name="Diskon" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{C939111D-FDDD-4AE6-9CF4-E32E0C132E97}" name="DPP" dataDxfId="5">
-      <calculatedColumnFormula>ROUND(G2-H2,0)</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{C939111D-FDDD-4AE6-9CF4-E32E0C132E97}" name="DPP" dataDxfId="12">
+      <calculatedColumnFormula>(H2-G2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FDEA914D-B1BF-4EDC-AEDD-14F6CDBB895B}" name="PPN" dataDxfId="3">
-      <calculatedColumnFormula>ROUND(I2*(11/100),0)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{FDEA914D-B1BF-4EDC-AEDD-14F6CDBB895B}" name="PPN" dataDxfId="11">
+      <calculatedColumnFormula>I2*(11/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{D769E2CF-D62C-446C-9A53-E329E20C6807}" name="Tarif PPNBM" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{4DE0E037-96B7-48BE-8850-5258C9847B91}" name="PPNBM" dataDxfId="0"/>
-    <tableColumn id="13" xr3:uid="{B615268A-844B-42E2-A5A2-72195A2664E4}" name="NPWP/NIK" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{F1E33254-D780-4D07-80BB-5674F9B70303}" name="Nama NPWP/NIK" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{22CC396C-2CBE-479D-88F5-6EA5DC9D5133}" name="Alamat" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{D769E2CF-D62C-446C-9A53-E329E20C6807}" name="Tarif PPNBM" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{4DE0E037-96B7-48BE-8850-5258C9847B91}" name="PPNBM" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{B615268A-844B-42E2-A5A2-72195A2664E4}" name="NPWP/NIK" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{F1E33254-D780-4D07-80BB-5674F9B70303}" name="Nama NPWP/NIK" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{22CC396C-2CBE-479D-88F5-6EA5DC9D5133}" name="Alamat" dataDxfId="6"/>
     <tableColumn id="16" xr3:uid="{3D0EFD70-50F5-4716-9B7D-3E98D5AE2624}" name="Jenis Faktur"/>
     <tableColumn id="17" xr3:uid="{EEFF7594-94BB-4A0D-8B96-CF56730F1D99}" name="Jenis Transaksi"/>
-    <tableColumn id="18" xr3:uid="{C5A4ADF7-A071-4A78-B977-141879F78DB9}" name="ID Keterangan Tambahan" dataDxfId="15"/>
-    <tableColumn id="19" xr3:uid="{47330B13-5D92-4F55-859E-BF363B6E02E4}" name="FG Uang Muka" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{817CF753-F434-42FF-AB6F-B8255AE55FF2}" name="Uang Muka DPP" dataDxfId="13"/>
-    <tableColumn id="21" xr3:uid="{14096E70-864F-498E-BF7D-F6876B6CBC26}" name="Uang Muka PPN" dataDxfId="12"/>
-    <tableColumn id="22" xr3:uid="{DA5EE2D8-370D-4D64-A71E-0C60CC9FE1F2}" name="Uang Muka PPNBM" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{C5A4ADF7-A071-4A78-B977-141879F78DB9}" name="ID Keterangan Tambahan" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{47330B13-5D92-4F55-859E-BF363B6E02E4}" name="FG Uang Muka" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{817CF753-F434-42FF-AB6F-B8255AE55FF2}" name="Uang Muka DPP" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{14096E70-864F-498E-BF7D-F6876B6CBC26}" name="Uang Muka PPN" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{DA5EE2D8-370D-4D64-A71E-0C60CC9FE1F2}" name="Uang Muka PPNBM" dataDxfId="1"/>
     <tableColumn id="23" xr3:uid="{F8D94E09-EF08-41BF-82CE-7F8D98F93F38}" name="Kode Dokumen Pendukung"/>
-    <tableColumn id="24" xr3:uid="{AE3F260F-3E3E-426B-BC7B-05F739770553}" name="Referensi" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{AE3F260F-3E3E-426B-BC7B-05F739770553}" name="Referensi" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1037,11 +1111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C6860E-518B-4B96-A056-3477492E079F}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,27 +1123,29 @@
     <col min="1" max="1" width="20.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="11" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="16" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="16" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
-    <col min="15" max="15" width="85" customWidth="1"/>
-    <col min="16" max="16" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.28515625" customWidth="1"/>
-    <col min="18" max="18" width="30.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" customWidth="1"/>
-    <col min="23" max="23" width="27.140625" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="21" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" style="14" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="14" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="55.28515625" customWidth="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1"/>
+    <col min="19" max="19" width="33.28515625" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" customWidth="1"/>
+    <col min="25" max="25" width="27.140625" customWidth="1"/>
+    <col min="26" max="26" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1085,17 +1161,17 @@
       <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>5</v>
@@ -1157,33 +1233,33 @@
         <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E2" s="20">
         <v>1033</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="15">
         <f>E2*F2</f>
         <v>1033</v>
       </c>
-      <c r="H2" s="21">
-        <v>0</v>
-      </c>
-      <c r="I2" s="17">
-        <f>ROUND(G2-H2,0)</f>
+      <c r="I2" s="15">
+        <f>(H2-G2)</f>
         <v>1033</v>
       </c>
-      <c r="J2" s="17">
-        <f t="shared" ref="J2:J3" si="0">ROUND(I2*(11/100),0)</f>
-        <v>114</v>
-      </c>
-      <c r="K2" s="21">
-        <v>0</v>
-      </c>
-      <c r="L2" s="17">
+      <c r="J2" s="15">
+        <f t="shared" ref="J2:J3" si="0">I2*(11/100)</f>
+        <v>113.63</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15">
         <v>0</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -1208,7 +1284,7 @@
       <c r="V2" s="7"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45168</v>
       </c>
@@ -1219,33 +1295,33 @@
         <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E3" s="20">
         <v>2000</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="17">
         <v>2</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
         <f>E3*F3</f>
         <v>4000</v>
       </c>
-      <c r="H3" s="21">
-        <v>0</v>
-      </c>
-      <c r="I3" s="18">
-        <f t="shared" ref="I3" si="1">ROUND(G3-H3,0)</f>
+      <c r="I3" s="16">
+        <f>(H3-G3)</f>
         <v>4000</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="K3" s="21">
-        <v>0</v>
-      </c>
-      <c r="L3" s="17">
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
         <v>0</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -1270,54 +1346,54 @@
       <c r="V3" s="7"/>
       <c r="X3" s="6"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>45169</v>
+        <v>45168</v>
       </c>
       <c r="B4" s="11">
-        <v>42352397871</v>
+        <v>42352397870</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="20">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="19">
+        <v>45</v>
+      </c>
+      <c r="E4" s="21">
+        <v>146846.84684684683</v>
+      </c>
+      <c r="F4" s="24">
         <v>2</v>
       </c>
-      <c r="G4" s="17">
-        <f>E4*F4</f>
-        <v>6000</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18">
-        <f>ROUND(G4-H4,0)</f>
-        <v>6000</v>
-      </c>
-      <c r="J4" s="18">
-        <f>ROUND(I4*(11/100),0)</f>
-        <v>660</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="17">
+      <c r="G4" s="26">
+        <v>1801.8018018018017</v>
+      </c>
+      <c r="H4" s="16">
+        <f t="shared" ref="H4:H11" si="1">E4*F4</f>
+        <v>293693.69369369367</v>
+      </c>
+      <c r="I4" s="26">
+        <f t="shared" ref="I4:I11" si="2">(H4-G4)</f>
+        <v>291891.89189189189</v>
+      </c>
+      <c r="J4" s="25">
+        <f t="shared" ref="J4:J11" si="3">I4*(11/100)</f>
+        <v>32108.10810810811</v>
+      </c>
+      <c r="K4" s="18">
+        <v>0</v>
+      </c>
+      <c r="L4" s="15">
         <v>0</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="P4" t="s">
         <v>36</v>
@@ -1332,11 +1408,445 @@
       <c r="V4" s="7"/>
       <c r="X4" s="6"/>
     </row>
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B5" s="11">
+        <v>42352397870</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="21">
+        <v>43243.24324324324</v>
+      </c>
+      <c r="F5" s="24">
+        <v>5</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <f t="shared" si="1"/>
+        <v>216216.21621621621</v>
+      </c>
+      <c r="I5" s="26">
+        <f t="shared" si="2"/>
+        <v>216216.21621621621</v>
+      </c>
+      <c r="J5" s="25">
+        <f t="shared" si="3"/>
+        <v>23783.783783783783</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B6" s="11">
+        <v>42352397870</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="21">
+        <v>17567.567567567567</v>
+      </c>
+      <c r="F6" s="24">
+        <v>40</v>
+      </c>
+      <c r="G6" s="26">
+        <v>18018.018018018018</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="1"/>
+        <v>702702.70270270272</v>
+      </c>
+      <c r="I6" s="26">
+        <f t="shared" si="2"/>
+        <v>684684.68468468473</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="3"/>
+        <v>75315.315315315325</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="15">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="8"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B7" s="11">
+        <v>42352397870</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="21">
+        <v>117117.11711711712</v>
+      </c>
+      <c r="F7" s="24">
+        <v>5</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="1"/>
+        <v>585585.58558558556</v>
+      </c>
+      <c r="I7" s="26">
+        <f t="shared" si="2"/>
+        <v>585585.58558558556</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="3"/>
+        <v>64414.414414414416</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="15">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="8"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B8" s="11">
+        <v>42352397870</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="21">
+        <v>272072.07207207207</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2</v>
+      </c>
+      <c r="G8" s="26">
+        <v>3603.6036036036035</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="1"/>
+        <v>544144.14414414414</v>
+      </c>
+      <c r="I8" s="26">
+        <f t="shared" si="2"/>
+        <v>540540.54054054059</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="3"/>
+        <v>59459.459459459467</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="15">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="8"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B9" s="11">
+        <v>42352397870</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="21">
+        <v>17567.567567567567</v>
+      </c>
+      <c r="F9" s="24">
+        <v>30</v>
+      </c>
+      <c r="G9" s="26">
+        <v>13513.513513513511</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
+        <v>527027.02702702698</v>
+      </c>
+      <c r="I9" s="26">
+        <f t="shared" si="2"/>
+        <v>513513.51351351349</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="3"/>
+        <v>56486.486486486487</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="8"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B10" s="11">
+        <v>42352397870</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="21">
+        <v>17567.567567567567</v>
+      </c>
+      <c r="F10" s="24">
+        <v>30</v>
+      </c>
+      <c r="G10" s="26">
+        <v>13513.513513513511</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="1"/>
+        <v>527027.02702702698</v>
+      </c>
+      <c r="I10" s="26">
+        <f t="shared" si="2"/>
+        <v>513513.51351351349</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="3"/>
+        <v>56486.486486486487</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="8"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B11" s="11">
+        <v>42352397870</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="21">
+        <v>102702.70270270269</v>
+      </c>
+      <c r="F11" s="24">
+        <v>5</v>
+      </c>
+      <c r="G11" s="26">
+        <v>27027.027027027023</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="1"/>
+        <v>513513.51351351349</v>
+      </c>
+      <c r="I11" s="26">
+        <f t="shared" si="2"/>
+        <v>486486.48648648645</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="3"/>
+        <v>53513.513513513513</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="X11" s="6"/>
+    </row>
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{18CF0B83-2F3D-4193-B623-2EF5FBF4797B}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="P2:P11" xr:uid="{18CF0B83-2F3D-4193-B623-2EF5FBF4797B}">
       <formula1>"Faktur Pajak,Faktur Pajak Pengganti"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1352,13 +1862,13 @@
           <x14:formula1>
             <xm:f>Setting!$C$2:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q4</xm:sqref>
+          <xm:sqref>Q2:Q11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9ACCCF07-051A-46C6-BE5A-E90E36DF1E55}">
           <x14:formula1>
             <xm:f>IF(Q2 = "Penyerahan yang PPN-nya Tidak Dipungut",Setting!$A$2, IF(Q2 = "Penyerahan yang PPN-nya Dibebaskan",Setting!$B$2, $Y$2  ) )</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R4</xm:sqref>
+          <xm:sqref>R2:R11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
